--- a/2 курс 2 семестр/ЭВМ/Матрицы№5.xlsx
+++ b/2 курс 2 семестр/ЭВМ/Матрицы№5.xlsx
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
